--- a/81/待解决.xlsx
+++ b/81/待解决.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>列1</t>
   </si>
@@ -28,6 +28,10 @@
   </si>
   <si>
     <t>对话框中处理回车事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox中SetTopIndex()函数不起作用，使用了VS2010 VS2008 VC6.0都没用，不知道是不是我理解错误了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,8 +97,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3"/>
   <tableColumns count="3">
     <tableColumn id="1" name="列1"/>
     <tableColumn id="2" name="列2" dataDxfId="0"/>
@@ -391,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -423,6 +427,17 @@
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41616</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/81/待解决.xlsx
+++ b/81/待解决.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>列1</t>
   </si>
@@ -32,6 +32,10 @@
   </si>
   <si>
     <t>ComboBox中SetTopIndex()函数不起作用，使用了VS2010 VS2008 VC6.0都没用，不知道是不是我理解错误了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码创建N多的菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,8 +101,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
     <tableColumn id="1" name="列1"/>
     <tableColumn id="2" name="列2" dataDxfId="0"/>
@@ -395,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -438,6 +442,17 @@
       </c>
       <c r="C3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41618</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
